--- a/AKHS_input_data.xlsx
+++ b/AKHS_input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wrhiza-my.sharepoint.com/personal/cparker_wrhi_ac_za/Documents/Desktop/Carbomica_reloaded/carbomica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0CB377-48AF-4CAD-A7BD-62A45EF92B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{5E0CB377-48AF-4CAD-A7BD-62A45EF92B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{297B1E1B-B373-45FC-9A57-CF550A629165}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="10" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>facilities</t>
   </si>
@@ -434,9 +434,6 @@
     <t>Bottled gas(LPG)</t>
   </si>
   <si>
-    <t>Liquid fuel(Petrol or Diesel)</t>
-  </si>
-  <si>
     <t>Vehicle Fuel (Owned Vehicles)</t>
   </si>
   <si>
@@ -449,16 +446,7 @@
     <t>Refrigerants</t>
   </si>
   <si>
-    <t>Procurement</t>
-  </si>
-  <si>
-    <t>procurement</t>
-  </si>
-  <si>
     <t>bottled_gas</t>
-  </si>
-  <si>
-    <t>liquid_fuel</t>
   </si>
   <si>
     <t>refrigerant</t>
@@ -528,10 +516,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -891,7 +877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1021,23 +1007,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1080,11 +1053,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1101,12 +1073,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -1134,7 +1104,6 @@
     <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
@@ -1227,58 +1196,23 @@
       <sheetName val="Overall"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1">
         <row r="23">
           <cell r="M23">
             <v>27079.678770000002</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="M25">
-            <v>5636.8052399999997</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="M26">
-            <v>32266.703559720838</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="M27">
-            <v>23932.031199999998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="M28">
-            <v>64549.918875000003</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="M29">
-            <v>129723.45024000001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="M30">
-            <v>27984.052307692305</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="M32">
-            <v>4053806.3797825561</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1684,8 +1618,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,10 +1654,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1677,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -1751,7 +1685,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -1759,7 +1693,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -1767,7 +1701,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -1775,7 +1709,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1783,7 +1717,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -1791,34 +1725,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1832,27 +1750,27 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KC298"/>
+  <dimension ref="A1:KB298"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:289" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:288" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1866,31 +1784,31 @@
       </c>
       <c r="D1" s="2" t="str">
         <f>IF('emission sources'!$A4&lt;&gt;"",'emission sources'!$A4,"")</f>
-        <v>liquid_fuel</v>
+        <v>vehicle_fuel</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF('emission sources'!$A5&lt;&gt;"",'emission sources'!$A5,"")</f>
-        <v>vehicle_fuel</v>
+        <v>travel</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF('emission sources'!$A6&lt;&gt;"",'emission sources'!$A6,"")</f>
-        <v>travel</v>
+        <v>anaesthetic_gases</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF('emission sources'!$A7&lt;&gt;"",'emission sources'!$A7,"")</f>
-        <v>anaesthetic_gases</v>
+        <v>refrigerant</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF('emission sources'!$A8&lt;&gt;"",'emission sources'!$A8,"")</f>
-        <v>refrigerant</v>
+        <v>waste</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF('emission sources'!$A9&lt;&gt;"",'emission sources'!$A9,"")</f>
-        <v>waste</v>
+        <v>inhalers</v>
       </c>
       <c r="J1" s="2" t="str">
-        <f>IF('emission sources'!$A11&lt;&gt;"",'emission sources'!$A11,"")</f>
-        <v>procurement</v>
+        <f>IF('emission sources'!$A10&lt;&gt;"",'emission sources'!$A10,"")</f>
+        <v/>
       </c>
       <c r="K1" s="2" t="str">
         <f>IF('emission sources'!$A12&lt;&gt;"",'emission sources'!$A12,"")</f>
@@ -3004,131 +2922,118 @@
         <f>IF('emission sources'!$A289&lt;&gt;"",'emission sources'!$A289,"")</f>
         <v/>
       </c>
-      <c r="KC1" s="2" t="str">
-        <f>IF('emission sources'!$A290&lt;&gt;"",'emission sources'!$A290,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:289" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
         <v>AKHS_Mombasa</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <v>109530.344</v>
       </c>
-      <c r="C2" s="12">
-        <f>'[1]HH GHGe data-ZM &amp; Kenya site'!$M$25</f>
-        <v>5636.8052399999997</v>
-      </c>
-      <c r="D2" s="12">
-        <f>'[1]HH GHGe data-ZM &amp; Kenya site'!$M$26</f>
-        <v>32266.703559720838</v>
-      </c>
-      <c r="E2" s="12">
-        <f>'[1]HH GHGe data-ZM &amp; Kenya site'!$M$27</f>
-        <v>23932.031199999998</v>
-      </c>
-      <c r="F2" s="12">
-        <f>'[1]HH GHGe data-ZM &amp; Kenya site'!$M$28</f>
-        <v>64549.918875000003</v>
-      </c>
-      <c r="G2" s="12">
-        <f>'[1]HH GHGe data-ZM &amp; Kenya site'!$M$29</f>
-        <v>129723.45024000001</v>
-      </c>
-      <c r="H2" s="12">
-        <f>'[1]HH GHGe data-ZM &amp; Kenya site'!$M$30</f>
-        <v>27984.052307692305</v>
-      </c>
-      <c r="I2" s="12">
-        <f>'[1]HH GHGe data-ZM &amp; Kenya site'!$M$32</f>
-        <v>4053806.3797825561</v>
-      </c>
-      <c r="J2">
+      <c r="C2" s="13">
         <f>'[1]HH GHGe data-ZM &amp; Kenya site'!$M$23</f>
         <v>27079.678770000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:289" x14ac:dyDescent="0.25">
+      <c r="D2" s="13">
+        <v>5636.8052399999997</v>
+      </c>
+      <c r="E2" s="13">
+        <v>32266.703559720838</v>
+      </c>
+      <c r="F2" s="13">
+        <v>23932.031199999998</v>
+      </c>
+      <c r="G2" s="13">
+        <v>64549.918875000003</v>
+      </c>
+      <c r="H2" s="13">
+        <v>129723.45024000001</v>
+      </c>
+      <c r="I2" s="13">
+        <v>27984.052307692305</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF('study sites'!$A3&lt;&gt;"",'study sites'!$A3,"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF('study sites'!$A4&lt;&gt;"",'study sites'!$A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF('study sites'!$A5&lt;&gt;"",'study sites'!$A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF('study sites'!$A6&lt;&gt;"",'study sites'!$A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF('study sites'!$A7&lt;&gt;"",'study sites'!$A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF('study sites'!$A8&lt;&gt;"",'study sites'!$A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF('study sites'!$A9&lt;&gt;"",'study sites'!$A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF('study sites'!$A10&lt;&gt;"",'study sites'!$A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF('study sites'!$A11&lt;&gt;"",'study sites'!$A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF('study sites'!$A12&lt;&gt;"",'study sites'!$A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF('study sites'!$A13&lt;&gt;"",'study sites'!$A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF('study sites'!$A14&lt;&gt;"",'study sites'!$A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF('study sites'!$A15&lt;&gt;"",'study sites'!$A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF('study sites'!$A16&lt;&gt;"",'study sites'!$A16,"")</f>
         <v/>
@@ -3151,6 +3056,10 @@
         <f>IF('study sites'!$A19&lt;&gt;"",'study sites'!$A19,"")</f>
         <v/>
       </c>
+      <c r="B19" t="str">
+        <f>IF('emission sources'!$A11&lt;&gt;"",'emission sources'!$A11,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
@@ -5935,10 +5844,6 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="str">
         <f>IF('study sites'!$A309&lt;&gt;"",'study sites'!$A309,"")</f>
-        <v/>
-      </c>
-      <c r="B298" t="str">
-        <f>IF('emission sources'!$A290&lt;&gt;"",'emission sources'!$A290,"")</f>
         <v/>
       </c>
     </row>
@@ -5955,8 +5860,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5979,7 +5884,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6008,74 +5913,74 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6088,27 +5993,26 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KD304"/>
+  <dimension ref="A1:KC304"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:290" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:289" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -6121,36 +6025,36 @@
         <v>bottled_gas</v>
       </c>
       <c r="D1" s="2" t="str">
-        <f>IF('emission sources'!$A4&lt;&gt;"",'emission sources'!$A5,"")</f>
+        <f>IF('emission sources'!$A4&lt;&gt;"",'emission sources'!$A4,"")</f>
         <v>vehicle_fuel</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF('emission sources'!$A5&lt;&gt;"",'emission sources'!$A5,"")</f>
-        <v>vehicle_fuel</v>
+        <v>travel</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF('emission sources'!$A6&lt;&gt;"",'emission sources'!$A6,"")</f>
-        <v>travel</v>
+        <v>anaesthetic_gases</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF('emission sources'!$A7&lt;&gt;"",'emission sources'!$A7,"")</f>
-        <v>anaesthetic_gases</v>
+        <v>refrigerant</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF('emission sources'!$A8&lt;&gt;"",'emission sources'!$A8,"")</f>
-        <v>refrigerant</v>
+        <v>waste</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF('emission sources'!$A9&lt;&gt;"",'emission sources'!$A9,"")</f>
-        <v>waste</v>
+        <v>inhalers</v>
       </c>
       <c r="J1" s="2" t="str">
         <f>IF('emission sources'!$A10&lt;&gt;"",'emission sources'!$A10,"")</f>
-        <v>inhalers</v>
+        <v/>
       </c>
       <c r="K1" s="2" t="str">
         <f>IF('emission sources'!$A11&lt;&gt;"",'emission sources'!$A11,"")</f>
-        <v>procurement</v>
+        <v/>
       </c>
       <c r="L1" s="2" t="str">
         <f>IF('emission sources'!$A12&lt;&gt;"",'emission sources'!$A12,"")</f>
@@ -7264,12 +7168,8 @@
         <f>IF('emission sources'!$A289&lt;&gt;"",'emission sources'!$A289,"")</f>
         <v/>
       </c>
-      <c r="KD1" s="2" t="str">
-        <f>IF('emission sources'!$A290&lt;&gt;"",'emission sources'!$A290,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF(interventions!$A2&lt;&gt;"",interventions!$A2,"")</f>
         <v>solar_system</v>
@@ -7285,9 +7185,8 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3,"")</f>
         <v>low_gpw_anaesthetic_gases</v>
@@ -7295,17 +7194,16 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4,"")</f>
         <v>low_gpw_refridgerant_gases</v>
@@ -7314,16 +7212,15 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5,"")</f>
         <v>low_gpw_inhalers</v>
@@ -7334,34 +7231,32 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6,"")</f>
         <v>electric_vehicle</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7,"")</f>
         <v>waste_disposal</v>
@@ -7370,23 +7265,20 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(interventions!$A8&lt;&gt;"",interventions!$A8,"")</f>
         <v>led_lighting</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7395,9 +7287,8 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(interventions!$A9&lt;&gt;"",interventions!$A9,"")</f>
         <v>solar_water_heating _system</v>
@@ -7413,9 +7304,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(interventions!$A10&lt;&gt;"",interventions!$A10,"")</f>
         <v>solar_water_pumping _system</v>
@@ -7431,9 +7321,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(interventions!$A11&lt;&gt;"",interventions!$A11,"")</f>
         <v>water_pumps</v>
@@ -7449,9 +7338,8 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(interventions!$A12&lt;&gt;"",interventions!$A12,"")</f>
         <v>air_conditioning _units</v>
@@ -7462,16 +7350,15 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(interventions!$A13&lt;&gt;"",interventions!$A13,"")</f>
         <v>energy_efficient _refrigetors</v>
@@ -7480,22 +7367,23 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(interventions!$A14&lt;&gt;"",interventions!$A14,"")</f>
         <v>alternative_cooking _gas</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -7503,11 +7391,8 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(interventions!$A15&lt;&gt;"",interventions!$A15,"")</f>
         <v/>
@@ -7521,9 +7406,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:290" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(interventions!$A16&lt;&gt;"",interventions!$A16,"")</f>
         <v/>
@@ -7537,9 +7421,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(interventions!$A17&lt;&gt;"",interventions!$A17,"")</f>
         <v/>
@@ -7553,9 +7436,8 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(interventions!$A18&lt;&gt;"",interventions!$A18,"")</f>
         <v/>
@@ -7569,9 +7451,8 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(interventions!$A19&lt;&gt;"",interventions!$A19,"")</f>
         <v/>
@@ -7585,9 +7466,8 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(interventions!$A20&lt;&gt;"",interventions!$A20,"")</f>
         <v/>
@@ -7601,9 +7481,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(interventions!$A21&lt;&gt;"",interventions!$A21,"")</f>
         <v/>
@@ -7617,9 +7496,8 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(interventions!$A22&lt;&gt;"",interventions!$A22,"")</f>
         <v/>
@@ -7633,9 +7511,8 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(interventions!$A23&lt;&gt;"",interventions!$A23,"")</f>
         <v/>
@@ -7649,9 +7526,8 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(interventions!$A24&lt;&gt;"",interventions!$A24,"")</f>
         <v/>
@@ -7665,9 +7541,8 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(interventions!$A25&lt;&gt;"",interventions!$A25,"")</f>
         <v/>
@@ -7681,9 +7556,8 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(interventions!$A26&lt;&gt;"",interventions!$A26,"")</f>
         <v/>
@@ -7697,9 +7571,8 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(interventions!$A27&lt;&gt;"",interventions!$A27,"")</f>
         <v/>
@@ -7713,9 +7586,8 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(interventions!$A28&lt;&gt;"",interventions!$A28,"")</f>
         <v/>
@@ -7729,9 +7601,8 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(interventions!$A29&lt;&gt;"",interventions!$A29,"")</f>
         <v/>
@@ -7745,9 +7616,8 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(interventions!$A30&lt;&gt;"",interventions!$A30,"")</f>
         <v/>
@@ -7761,9 +7631,8 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(interventions!$A31&lt;&gt;"",interventions!$A31,"")</f>
         <v/>
@@ -7777,9 +7646,8 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(interventions!$A32&lt;&gt;"",interventions!$A32,"")</f>
         <v/>
@@ -7793,9 +7661,8 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(interventions!$A33&lt;&gt;"",interventions!$A33,"")</f>
         <v/>
@@ -7809,9 +7676,8 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(interventions!$A34&lt;&gt;"",interventions!$A34,"")</f>
         <v/>
@@ -7825,9 +7691,8 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(interventions!$A35&lt;&gt;"",interventions!$A35,"")</f>
         <v/>
@@ -7841,9 +7706,8 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(interventions!$A36&lt;&gt;"",interventions!$A36,"")</f>
         <v/>
@@ -7857,75 +7721,74 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(interventions!$A37&lt;&gt;"",interventions!$A37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(interventions!$A38&lt;&gt;"",interventions!$A38,"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(interventions!$A39&lt;&gt;"",interventions!$A39,"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(interventions!$A40&lt;&gt;"",interventions!$A40,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(interventions!$A41&lt;&gt;"",interventions!$A41,"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(interventions!$A42&lt;&gt;"",interventions!$A42,"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(interventions!$A43&lt;&gt;"",interventions!$A43,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(interventions!$A44&lt;&gt;"",interventions!$A44,"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(interventions!$A45&lt;&gt;"",interventions!$A45,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(interventions!$A46&lt;&gt;"",interventions!$A46,"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(interventions!$A47&lt;&gt;"",interventions!$A47,"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(interventions!$A48&lt;&gt;"",interventions!$A48,"")</f>
         <v/>
@@ -9468,24 +9331,24 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K6">
+  <conditionalFormatting sqref="B2:J6">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="y">
-      <formula>NOT(ISERROR(SEARCH("y",F12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("y",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="F7">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="y">
-      <formula>NOT(ISERROR(SEARCH("y",G7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("y",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="J14">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="y">
-      <formula>NOT(ISERROR(SEARCH("y",K14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("y",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9500,8 +9363,8 @@
   </sheetPr>
   <dimension ref="A1:KR309"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12633,8 +12496,8 @@
   </sheetPr>
   <dimension ref="A1:KR309"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13891,10 +13754,10 @@
       <c r="F2" s="1">
         <v>41000</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>10000</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>12000</v>
       </c>
       <c r="I2" s="1">
